--- a/docs/Decodifiche/79_dec_tipo_rettifica.xlsx
+++ b/docs/Decodifiche/79_dec_tipo_rettifica.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>NOTATECNICA</t>
+  </si>
+  <si>
+    <t>9999-12-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -106,7 +115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -170,6 +179,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/Decodifiche/79_dec_tipo_rettifica.xlsx
+++ b/docs/Decodifiche/79_dec_tipo_rettifica.xlsx
@@ -1,85 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
+    <sheet name="Table" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>DESCRIZIONE</t>
-  </si>
-  <si>
-    <t>DATAINIZIOVALIDITA</t>
-  </si>
-  <si>
-    <t>DATAFINEVALIDITA</t>
-  </si>
-  <si>
-    <t>ORDINAMENTO</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>ANNULLAMENTO</t>
-  </si>
-  <si>
-    <t>2000-01-01 00:00:00.0</t>
-  </si>
-  <si>
-    <t>1999-12-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>MODIFICA</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>NOTATECNICA</t>
-  </si>
-  <si>
-    <t>9999-12-31 00:00:00.0</t>
-  </si>
-  <si>
-    <t>3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCRIZIONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATAINIZIOVALIDITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATAFINEVALIDITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDINAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNULLAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-01-01 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999-12-31 00:00:00.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODIFICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOTATECNICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
-    <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,48 +111,88 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
+  <borders count="1">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.5859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="21.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.56"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -145,7 +209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -162,7 +226,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -179,7 +243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -190,13 +254,19 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/Decodifiche/79_dec_tipo_rettifica.xlsx
+++ b/docs/Decodifiche/79_dec_tipo_rettifica.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>ANNOTAZIONERETTIFICA</t>
   </si>
 </sst>
 </file>
@@ -118,14 +121,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="3.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="23.46484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="21.33984375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="15.55859375" customWidth="true" bestFit="true"/>
@@ -216,6 +219,23 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
